--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2296.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2296.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.12869712837338</v>
+        <v>1.170378684997559</v>
       </c>
       <c r="B1">
-        <v>3.333812188172634</v>
+        <v>2.320566654205322</v>
       </c>
       <c r="C1">
-        <v>2.964557549095627</v>
+        <v>3.227429151535034</v>
       </c>
       <c r="D1">
-        <v>3.257087200046608</v>
+        <v>1.429557681083679</v>
       </c>
       <c r="E1">
-        <v>2.282798477230409</v>
+        <v>1.156444549560547</v>
       </c>
     </row>
   </sheetData>
